--- a/sup/Топливо.xlsx
+++ b/sup/Топливо.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$78</definedName>
+  </definedNames>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="95">
   <si>
     <t>Бригада</t>
   </si>
@@ -42,64 +45,268 @@
     <t>Газель 330232 Е064ВХ763-Расход</t>
   </si>
   <si>
+    <t>П08 Камаз C311TM716-Расход</t>
+  </si>
+  <si>
+    <t>П08 Камаз C311TM716-Заправка</t>
+  </si>
+  <si>
+    <t>П08 Контур 700 ТП №96-Расход</t>
+  </si>
+  <si>
+    <t>П08 Воздуходувка-Расход</t>
+  </si>
+  <si>
+    <t>П08 Вулкан 5000 №015-Расход</t>
+  </si>
+  <si>
     <t>Газель 330232 Е064ВХ763-Заправка</t>
   </si>
   <si>
-    <t>П08 Вулкан 5000 №014-Расход</t>
-  </si>
-  <si>
-    <t>П08 Камаз X210HP797-Расход</t>
-  </si>
-  <si>
     <t>П08 Контур 700 ТП №96-Заправка</t>
   </si>
   <si>
-    <t>П08 Вулкан 5000 №014-Заправка</t>
-  </si>
-  <si>
-    <t>П08 Камаз X210HP797-Заправка</t>
+    <t>П08 Вулкан 5000 №015-Заправка</t>
+  </si>
+  <si>
+    <t>Р05 Шумик</t>
+  </si>
+  <si>
+    <t>{'Беларусь'}</t>
+  </si>
+  <si>
+    <t>Газель Next AP5750-1-Расход</t>
+  </si>
+  <si>
+    <t>Р05 бензогенератор-Расход</t>
+  </si>
+  <si>
+    <t>Р05 бензогенератор-Заправка</t>
+  </si>
+  <si>
+    <t>Газель Next AP5750-1-Заправка</t>
+  </si>
+  <si>
+    <t>Р01 ISUZU  АК 5853-1-Расход</t>
+  </si>
+  <si>
+    <t>Р05 LineLazer-Расход</t>
+  </si>
+  <si>
+    <t>Р01 ISUZU  АК 5853-1-Заправка</t>
+  </si>
+  <si>
+    <t>Р05 воздуходувка-Расход</t>
+  </si>
+  <si>
+    <t>Р05 воздуходувка-Заправка</t>
+  </si>
+  <si>
+    <t>Р05 LineLazer-Заправка</t>
   </si>
   <si>
     <t>Р12 Симоненков</t>
   </si>
   <si>
-    <t>Р12 Лайн-лазер Грако 3900-Расход</t>
-  </si>
-  <si>
     <t>Воздуходувка GB-26-Расход</t>
   </si>
   <si>
+    <t>К07 Электростанция-Расход</t>
+  </si>
+  <si>
     <t>К07 HYUNDAI VT (HD78)  В902ХС763-Расход</t>
   </si>
   <si>
-    <t>К07 Электростанция-Расход</t>
-  </si>
-  <si>
     <t>К07 HYUNDAI VT (HD78)  В902ХС763-Заправка</t>
   </si>
   <si>
+    <t>Воздуходувка GB-26-Заправка</t>
+  </si>
+  <si>
     <t>К07 Электростанция-Заправка</t>
   </si>
   <si>
-    <t>Воздуходувка GB-26-Заправка</t>
-  </si>
-  <si>
     <t>Р13 Пиявка</t>
   </si>
   <si>
     <t>ГАЗ В093ХТ-763-Расход</t>
   </si>
   <si>
+    <t>Р12 LineLazer Грако 3900-Расход</t>
+  </si>
+  <si>
+    <t>Р13 Генератор ресанта БГ4000Р-Расход</t>
+  </si>
+  <si>
     <t>ГАЗ В093ХТ-763-Заправка</t>
   </si>
   <si>
-    <t>Р14 Матросов</t>
-  </si>
-  <si>
-    <t>П01 Газ АМ 6426-1-Расход</t>
-  </si>
-  <si>
-    <t>П01 Газ АМ 6426-1-Заправка</t>
+    <t>Р13 Генератор ресанта БГ4000Р-Заправка</t>
+  </si>
+  <si>
+    <t>Р12 LineLazer Грако 3900-Заправка</t>
+  </si>
+  <si>
+    <t>Р15 Коряков</t>
+  </si>
+  <si>
+    <t>Газ 330232 В447ХТ763-Расход</t>
+  </si>
+  <si>
+    <t>Р09 бензогенератор huter dy-4000-Расход</t>
+  </si>
+  <si>
+    <t>К03 Медведь</t>
+  </si>
+  <si>
+    <t>К03 ШМЕЛЬ12А  АМ3348-1-Расход</t>
+  </si>
+  <si>
+    <t>Шмель 12 AM 4367-1-Заправка</t>
+  </si>
+  <si>
+    <t>К03 ШМЕЛЬ12А  АМ3348-1-Заправка</t>
+  </si>
+  <si>
+    <t>К03 HYUNDAI  АК 1163-1-Расход</t>
+  </si>
+  <si>
+    <t>К03 HYUNDAI  АК 1163-1-Заправка</t>
+  </si>
+  <si>
+    <t>К03 Воздуходувка-Расход</t>
+  </si>
+  <si>
+    <t>К03 Воздуходувка-Заправка</t>
+  </si>
+  <si>
+    <t>У02 Назарук</t>
+  </si>
+  <si>
+    <t>Контур 400 №5-Расход</t>
+  </si>
+  <si>
+    <t>Контур 400 №5-Заправка</t>
+  </si>
+  <si>
+    <t>ГАЗель NEXT АР5699-1-Расход</t>
+  </si>
+  <si>
+    <t>Р06 Вулкан 2х400 Б15-Расход</t>
+  </si>
+  <si>
+    <t>воздуходувка новая-Расход</t>
+  </si>
+  <si>
+    <t>Р06 Вулкан 2х400 Б15-Заправка</t>
+  </si>
+  <si>
+    <t>воздуходувка новая-Заправка</t>
+  </si>
+  <si>
+    <t>ГАЗель NEXT АР5699-1-Заправка</t>
+  </si>
+  <si>
+    <t>П10 Валеев</t>
+  </si>
+  <si>
+    <t>{'Казахстан(Азия)'}</t>
+  </si>
+  <si>
+    <t>П06 ГАЗ АН 8428-1-Расход</t>
+  </si>
+  <si>
+    <t>П08 КАМАЗ А872ТМ716-Расход</t>
+  </si>
+  <si>
+    <t>П06 ГАЗ АН 8428-1-Заправка</t>
+  </si>
+  <si>
+    <t>П08 КАМАЗ А872ТМ716-Заправка</t>
+  </si>
+  <si>
+    <t>Котел HOFFMAN 4т-Заправка</t>
+  </si>
+  <si>
+    <t>Контур 700 ТПС (аренда) №054-Заправка</t>
+  </si>
+  <si>
+    <t>Контур 700 ТПС (аренда) №054-Расход</t>
+  </si>
+  <si>
+    <t>Котел HOFFMAN 4т-Расход</t>
+  </si>
+  <si>
+    <t>К08 Семашко</t>
+  </si>
+  <si>
+    <t>К01 Шмель 12А  АМ 4366-1 (аренда)-Расход</t>
+  </si>
+  <si>
+    <t>К01 Шмель 12А  АМ 4366-1 (аренда)-Заправка</t>
+  </si>
+  <si>
+    <t>П07 Расщибин</t>
+  </si>
+  <si>
+    <t>Р14 Воздуходувка Штиль-Расход</t>
+  </si>
+  <si>
+    <t>Р14 Генератор Макита-Расход</t>
+  </si>
+  <si>
+    <t>Газель Next M422XP-716-Расход</t>
+  </si>
+  <si>
+    <t>Р14 Генератор Макита-Заправка</t>
+  </si>
+  <si>
+    <t>Р14 Воздуходувка Штиль-Заправка</t>
+  </si>
+  <si>
+    <t>Газель Next M422XP-716-Заправка</t>
+  </si>
+  <si>
+    <t>Р16 Симинский</t>
+  </si>
+  <si>
+    <t>К01 ГАЗ  АН 0391-1-Расход</t>
+  </si>
+  <si>
+    <t>К01 ГАЗ  АН 0391-1-Заправка</t>
+  </si>
+  <si>
+    <t>Р02.1 LineLazer НОВЫЙ-Расход</t>
+  </si>
+  <si>
+    <t>Р02.1 LineLazer НОВЫЙ-Заправка</t>
+  </si>
+  <si>
+    <t>Р17 Северенюк Д</t>
+  </si>
+  <si>
+    <t>Р03 ГАЗ NEXT АН 7652-1 (новый)-Расход</t>
+  </si>
+  <si>
+    <t>Р05 LineLazer НОВЫЙ-Заправка</t>
+  </si>
+  <si>
+    <t>Р03 ГАЗ NEXT АН 7652-1 (новый)-Заправка</t>
+  </si>
+  <si>
+    <t>Р18 Челлура</t>
+  </si>
+  <si>
+    <t>К05 LineLazer НОВЫЙ-Расход</t>
+  </si>
+  <si>
+    <t>Газель Next AP 9207-1-Расход</t>
+  </si>
+  <si>
+    <t>К05 LineLazer НОВЫЙ-Заправка</t>
+  </si>
+  <si>
+    <t>Газель Next AP 9207-1-Заправка</t>
   </si>
 </sst>
 </file>
@@ -118,8 +325,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,276 +697,1089 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>285</v>
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>285</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>262.60000000000002</v>
+        <v>114.83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>77.900000000000006</v>
+        <v>158.76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>4.5</v>
+        <v>231.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>32.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>108.12</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>5.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>13.85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>98.82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>215.54</v>
+        <v>108.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>79.53</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>309.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>228.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>280.60000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27">
+        <v>542.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>538.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>1068.9000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33">
+        <v>790.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>118.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>207.96</v>
+      <c r="D43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>40.599999999999987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52">
+        <v>240.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>448.99999999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55">
+        <v>49.20000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>67.919999999999987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65">
+        <v>36.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>33.17</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D20">
-    <sortCondition ref="A2:A20"/>
-    <sortCondition ref="C2:C20"/>
+  <sortState ref="A2:D78">
+    <sortCondition ref="A2:A78"/>
+    <sortCondition ref="C2:C78"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>